--- a/Output_Backtest/Maximum_Sharpe_drawdowns.xlsx
+++ b/Output_Backtest/Maximum_Sharpe_drawdowns.xlsx
@@ -692,7 +692,7 @@
         <v>42369</v>
       </c>
       <c r="B39">
-        <v>-0.0201004386137437</v>
+        <v>-0.02010059263726943</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -700,7 +700,7 @@
         <v>42400</v>
       </c>
       <c r="B40">
-        <v>-0.05071744068914569</v>
+        <v>-0.0507176873797108</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -708,7 +708,7 @@
         <v>42429</v>
       </c>
       <c r="B41">
-        <v>-0.04628896700624014</v>
+        <v>-0.04628914322326331</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -716,7 +716,7 @@
         <v>42460</v>
       </c>
       <c r="B42">
-        <v>-0.01220214390233887</v>
+        <v>-0.01220203888871128</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -724,7 +724,7 @@
         <v>42490</v>
       </c>
       <c r="B43">
-        <v>-0.02311682499364235</v>
+        <v>-0.02311682919469907</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -732,7 +732,7 @@
         <v>42521</v>
       </c>
       <c r="B44">
-        <v>-0.003145476278253279</v>
+        <v>-0.003145221539787157</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -756,7 +756,7 @@
         <v>42613</v>
       </c>
       <c r="B47">
-        <v>-0.001023177303209688</v>
+        <v>-0.001023283744147278</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -772,7 +772,7 @@
         <v>42674</v>
       </c>
       <c r="B49">
-        <v>-0.0218666964657424</v>
+        <v>-0.02186652335487224</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -780,7 +780,7 @@
         <v>42704</v>
       </c>
       <c r="B50">
-        <v>-0.05268711074451932</v>
+        <v>-0.05268706529681961</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -788,7 +788,7 @@
         <v>42735</v>
       </c>
       <c r="B51">
-        <v>-0.04501904675442861</v>
+        <v>-0.04501911460247458</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -796,7 +796,7 @@
         <v>42766</v>
       </c>
       <c r="B52">
-        <v>-0.03069994900931873</v>
+        <v>-0.03070027540077269</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -804,7 +804,7 @@
         <v>42794</v>
       </c>
       <c r="B53">
-        <v>-0.008213964943410522</v>
+        <v>-0.008215207627467361</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -812,7 +812,7 @@
         <v>42825</v>
       </c>
       <c r="B54">
-        <v>-0.00437943151798019</v>
+        <v>-0.004380833414375861</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -836,7 +836,7 @@
         <v>42916</v>
       </c>
       <c r="B57">
-        <v>-0.006251289995911184</v>
+        <v>-0.00625122472936666</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -900,7 +900,7 @@
         <v>43159</v>
       </c>
       <c r="B65">
-        <v>-0.02086325682715476</v>
+        <v>-0.02086301750895661</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -908,7 +908,7 @@
         <v>43190</v>
       </c>
       <c r="B66">
-        <v>-0.02639814926698893</v>
+        <v>-0.02639780564517734</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -916,7 +916,7 @@
         <v>43220</v>
       </c>
       <c r="B67">
-        <v>-0.02635193209230933</v>
+        <v>-0.02635163996630242</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -956,7 +956,7 @@
         <v>43373</v>
       </c>
       <c r="B72">
-        <v>-0.01579390024433709</v>
+        <v>-0.01579388351320095</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -964,7 +964,7 @@
         <v>43404</v>
       </c>
       <c r="B73">
-        <v>-0.06600803979419279</v>
+        <v>-0.06600845915762932</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -972,7 +972,7 @@
         <v>43434</v>
       </c>
       <c r="B74">
-        <v>-0.0600332932480383</v>
+        <v>-0.06003388587696318</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -980,7 +980,7 @@
         <v>43465</v>
       </c>
       <c r="B75">
-        <v>-0.1058700203681403</v>
+        <v>-0.1058703909033785</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -988,7 +988,7 @@
         <v>43496</v>
       </c>
       <c r="B76">
-        <v>-0.03761466651994902</v>
+        <v>-0.03761509692264255</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -996,7 +996,7 @@
         <v>43524</v>
       </c>
       <c r="B77">
-        <v>-0.03267572423524347</v>
+        <v>-0.03267611282692371</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1004,7 +1004,7 @@
         <v>43555</v>
       </c>
       <c r="B78">
-        <v>-0.01503760960220295</v>
+        <v>-0.01503823650833583</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1020,7 +1020,7 @@
         <v>43616</v>
       </c>
       <c r="B80">
-        <v>-0.05073140684622435</v>
+        <v>-0.05073230123784038</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1028,7 +1028,7 @@
         <v>43646</v>
       </c>
       <c r="B81">
-        <v>-0.004624747294454508</v>
+        <v>-0.00462561644346094</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1044,7 +1044,7 @@
         <v>43708</v>
       </c>
       <c r="B83">
-        <v>-0.01621817466653354</v>
+        <v>-0.01621774049815895</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1052,7 +1052,7 @@
         <v>43738</v>
       </c>
       <c r="B84">
-        <v>-0.012758385979141</v>
+        <v>-0.01275818487243665</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1092,7 +1092,7 @@
         <v>43890</v>
       </c>
       <c r="B89">
-        <v>-0.009748930527630296</v>
+        <v>-0.009749030257651317</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1100,7 +1100,7 @@
         <v>43921</v>
       </c>
       <c r="B90">
-        <v>-0.02040973361843051</v>
+        <v>-0.02040999839341155</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1148,7 +1148,7 @@
         <v>44104</v>
       </c>
       <c r="B96">
-        <v>-0.01472363443722783</v>
+        <v>-0.01472365966413628</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1156,7 +1156,7 @@
         <v>44135</v>
       </c>
       <c r="B97">
-        <v>-0.03448393116804552</v>
+        <v>-0.03448408963461187</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1164,7 +1164,7 @@
         <v>44165</v>
       </c>
       <c r="B98">
-        <v>-0.008409262818461719</v>
+        <v>-0.008409502106125266</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1180,7 +1180,7 @@
         <v>44227</v>
       </c>
       <c r="B100">
-        <v>-0.0107329410678902</v>
+        <v>-0.01073297834994795</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1188,7 +1188,7 @@
         <v>44255</v>
       </c>
       <c r="B101">
-        <v>-0.025363333448928</v>
+        <v>-0.02536359027319905</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1196,7 +1196,7 @@
         <v>44286</v>
       </c>
       <c r="B102">
-        <v>-0.03205817163738339</v>
+        <v>-0.03205850455440577</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1204,7 +1204,7 @@
         <v>44316</v>
       </c>
       <c r="B103">
-        <v>-0.01195136770348632</v>
+        <v>-0.01195137536512348</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1212,7 +1212,7 @@
         <v>44347</v>
       </c>
       <c r="B104">
-        <v>-0.009363794632177812</v>
+        <v>-0.009363921303493736</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1244,7 +1244,7 @@
         <v>44469</v>
       </c>
       <c r="B108">
-        <v>-0.02373880051040623</v>
+        <v>-0.02373896914227217</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1252,7 +1252,7 @@
         <v>44500</v>
       </c>
       <c r="B109">
-        <v>-0.01069791379347957</v>
+        <v>-0.01069815373723973</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1260,7 +1260,7 @@
         <v>44530</v>
       </c>
       <c r="B110">
-        <v>-0.004052892337914728</v>
+        <v>-0.00405314991956598</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1268,7 +1268,7 @@
         <v>44561</v>
       </c>
       <c r="B111">
-        <v>-0.001366192222848077</v>
+        <v>-0.001366537381795515</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1276,7 +1276,7 @@
         <v>44592</v>
       </c>
       <c r="B112">
-        <v>-0.04516466922240917</v>
+        <v>-0.04516504088171314</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1284,7 +1284,7 @@
         <v>44620</v>
       </c>
       <c r="B113">
-        <v>-0.05951983975753934</v>
+        <v>-0.05952003407110264</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1292,7 +1292,7 @@
         <v>44651</v>
       </c>
       <c r="B114">
-        <v>-0.06439851693046091</v>
+        <v>-0.06439838924409064</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1300,7 +1300,7 @@
         <v>44681</v>
       </c>
       <c r="B115">
-        <v>-0.1259845808785748</v>
+        <v>-0.1259843600800846</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1308,7 +1308,7 @@
         <v>44712</v>
       </c>
       <c r="B116">
-        <v>-0.1428014164775472</v>
+        <v>-0.1428012043909276</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1316,7 +1316,7 @@
         <v>44742</v>
       </c>
       <c r="B117">
-        <v>-0.1843742355515048</v>
+        <v>-0.1843741727068265</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1324,7 +1324,7 @@
         <v>44773</v>
       </c>
       <c r="B118">
-        <v>-0.1544596588517394</v>
+        <v>-0.1544595506679093</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1332,7 +1332,7 @@
         <v>44804</v>
       </c>
       <c r="B119">
-        <v>-0.1913440015149477</v>
+        <v>-0.1913437744803716</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1340,7 +1340,7 @@
         <v>44834</v>
       </c>
       <c r="B120">
-        <v>-0.2592363242358123</v>
+        <v>-0.2592358748055991</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1348,7 +1348,7 @@
         <v>44865</v>
       </c>
       <c r="B121">
-        <v>-0.2260942279112028</v>
+        <v>-0.2260940775735767</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1356,7 +1356,7 @@
         <v>44895</v>
       </c>
       <c r="B122">
-        <v>-0.1904971598672287</v>
+        <v>-0.1904970605904574</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1364,7 +1364,7 @@
         <v>44926</v>
       </c>
       <c r="B123">
-        <v>-0.2220402906084075</v>
+        <v>-0.2220401993710495</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1372,7 +1372,7 @@
         <v>44957</v>
       </c>
       <c r="B124">
-        <v>-0.1631611236187671</v>
+        <v>-0.1631609899443196</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1380,7 +1380,7 @@
         <v>44985</v>
       </c>
       <c r="B125">
-        <v>-0.1838535690351154</v>
+        <v>-0.1838534541347168</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1388,7 +1388,7 @@
         <v>45016</v>
       </c>
       <c r="B126">
-        <v>-0.158806674075628</v>
+        <v>-0.1588065283424291</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1396,7 +1396,7 @@
         <v>45046</v>
       </c>
       <c r="B127">
-        <v>-0.1600721534180331</v>
+        <v>-0.1600720088142313</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1404,7 +1404,7 @@
         <v>45077</v>
       </c>
       <c r="B128">
-        <v>-0.1820939787462491</v>
+        <v>-0.1820938302253291</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1412,7 +1412,7 @@
         <v>45107</v>
       </c>
       <c r="B129">
-        <v>-0.1551734501594356</v>
+        <v>-0.155173367645236</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1420,7 +1420,7 @@
         <v>45138</v>
       </c>
       <c r="B130">
-        <v>-0.09767370303816077</v>
+        <v>-0.09767364519687265</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1428,7 +1428,7 @@
         <v>45169</v>
       </c>
       <c r="B131">
-        <v>-0.1024099256821393</v>
+        <v>-0.1024098284439881</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1436,7 +1436,7 @@
         <v>45199</v>
       </c>
       <c r="B132">
-        <v>-0.1131064199504257</v>
+        <v>-0.1131063278082207</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1444,7 +1444,7 @@
         <v>45230</v>
       </c>
       <c r="B133">
-        <v>-0.1229960105666999</v>
+        <v>-0.1229958810744236</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1452,7 +1452,7 @@
         <v>45260</v>
       </c>
       <c r="B134">
-        <v>-0.102302530838527</v>
+        <v>-0.1023023756581125</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1460,7 +1460,7 @@
         <v>45291</v>
       </c>
       <c r="B135">
-        <v>-0.09302190466289054</v>
+        <v>-0.09302176591845664</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1468,7 +1468,7 @@
         <v>45322</v>
       </c>
       <c r="B136">
-        <v>-0.07360609271478755</v>
+        <v>-0.07360594662482176</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1476,7 +1476,7 @@
         <v>45351</v>
       </c>
       <c r="B137">
-        <v>-0.04360748063751963</v>
+        <v>-0.04360733044918207</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1492,7 +1492,7 @@
         <v>45412</v>
       </c>
       <c r="B139">
-        <v>-0.009426931573781159</v>
+        <v>-0.009426880864789289</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1524,7 +1524,7 @@
         <v>45535</v>
       </c>
       <c r="B143">
-        <v>-0.001195761888172018</v>
+        <v>-0.001195761888172101</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1548,7 +1548,7 @@
         <v>45626</v>
       </c>
       <c r="B146">
-        <v>-0.02319198520888838</v>
+        <v>-0.02319198239367681</v>
       </c>
     </row>
   </sheetData>

--- a/Output_Backtest/Maximum_Sharpe_drawdowns.xlsx
+++ b/Output_Backtest/Maximum_Sharpe_drawdowns.xlsx
@@ -692,7 +692,7 @@
         <v>42369</v>
       </c>
       <c r="B39">
-        <v>-0.02010059263726943</v>
+        <v>-0.02010041562905113</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -700,7 +700,7 @@
         <v>42400</v>
       </c>
       <c r="B40">
-        <v>-0.0507176873797108</v>
+        <v>-0.05071928632905832</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -708,7 +708,7 @@
         <v>42429</v>
       </c>
       <c r="B41">
-        <v>-0.04628914322326331</v>
+        <v>-0.04628502195107782</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -716,7 +716,7 @@
         <v>42460</v>
       </c>
       <c r="B42">
-        <v>-0.01220203888871128</v>
+        <v>-0.01219024559204747</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -724,7 +724,7 @@
         <v>42490</v>
       </c>
       <c r="B43">
-        <v>-0.02311682919469907</v>
+        <v>-0.0231045620915894</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -732,7 +732,7 @@
         <v>42521</v>
       </c>
       <c r="B44">
-        <v>-0.003145221539787157</v>
+        <v>-0.003131744900745329</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -756,7 +756,7 @@
         <v>42613</v>
       </c>
       <c r="B47">
-        <v>-0.001023283744147278</v>
+        <v>-0.001025616836293195</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -772,7 +772,7 @@
         <v>42674</v>
       </c>
       <c r="B49">
-        <v>-0.02186652335487224</v>
+        <v>-0.02186666434372866</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -780,7 +780,7 @@
         <v>42704</v>
       </c>
       <c r="B50">
-        <v>-0.05268706529681961</v>
+        <v>-0.05268629881377872</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -788,7 +788,7 @@
         <v>42735</v>
       </c>
       <c r="B51">
-        <v>-0.04501911460247458</v>
+        <v>-0.04501662236142238</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -796,7 +796,7 @@
         <v>42766</v>
       </c>
       <c r="B52">
-        <v>-0.03070027540077269</v>
+        <v>-0.03069699347440173</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -804,7 +804,7 @@
         <v>42794</v>
       </c>
       <c r="B53">
-        <v>-0.008215207627467361</v>
+        <v>-0.008204067286896464</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -812,7 +812,7 @@
         <v>42825</v>
       </c>
       <c r="B54">
-        <v>-0.004380833414375861</v>
+        <v>-0.004368549371768944</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -836,7 +836,7 @@
         <v>42916</v>
       </c>
       <c r="B57">
-        <v>-0.00625122472936666</v>
+        <v>-0.00625157140178136</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -900,7 +900,7 @@
         <v>43159</v>
       </c>
       <c r="B65">
-        <v>-0.02086301750895661</v>
+        <v>-0.02086494920417769</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -908,7 +908,7 @@
         <v>43190</v>
       </c>
       <c r="B66">
-        <v>-0.02639780564517734</v>
+        <v>-0.02639958972606288</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -916,7 +916,7 @@
         <v>43220</v>
       </c>
       <c r="B67">
-        <v>-0.02635163996630242</v>
+        <v>-0.02635121276409487</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -956,7 +956,7 @@
         <v>43373</v>
       </c>
       <c r="B72">
-        <v>-0.01579388351320095</v>
+        <v>-0.01579648079660852</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -964,7 +964,7 @@
         <v>43404</v>
       </c>
       <c r="B73">
-        <v>-0.06600845915762932</v>
+        <v>-0.06601222275814507</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -972,7 +972,7 @@
         <v>43434</v>
       </c>
       <c r="B74">
-        <v>-0.06003388587696318</v>
+        <v>-0.06003626449096112</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -980,7 +980,7 @@
         <v>43465</v>
       </c>
       <c r="B75">
-        <v>-0.1058703909033785</v>
+        <v>-0.1058776833289953</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -988,7 +988,7 @@
         <v>43496</v>
       </c>
       <c r="B76">
-        <v>-0.03761509692264255</v>
+        <v>-0.03761854471848178</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -996,7 +996,7 @@
         <v>43524</v>
       </c>
       <c r="B77">
-        <v>-0.03267611282692371</v>
+        <v>-0.03267975809470885</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1004,7 +1004,7 @@
         <v>43555</v>
       </c>
       <c r="B78">
-        <v>-0.01503823650833583</v>
+        <v>-0.01504126182236134</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1020,7 +1020,7 @@
         <v>43616</v>
       </c>
       <c r="B80">
-        <v>-0.05073230123784038</v>
+        <v>-0.05073145590979903</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1028,7 +1028,7 @@
         <v>43646</v>
       </c>
       <c r="B81">
-        <v>-0.00462561644346094</v>
+        <v>-0.004621548186484073</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1044,7 +1044,7 @@
         <v>43708</v>
       </c>
       <c r="B83">
-        <v>-0.01621774049815895</v>
+        <v>-0.01622180653862048</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1052,7 +1052,7 @@
         <v>43738</v>
       </c>
       <c r="B84">
-        <v>-0.01275818487243665</v>
+        <v>-0.01275727700680652</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1092,7 +1092,7 @@
         <v>43890</v>
       </c>
       <c r="B89">
-        <v>-0.009749030257651317</v>
+        <v>-0.009750996954781056</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1100,7 +1100,7 @@
         <v>43921</v>
       </c>
       <c r="B90">
-        <v>-0.02040999839341155</v>
+        <v>-0.02041260085862348</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1148,7 +1148,7 @@
         <v>44104</v>
       </c>
       <c r="B96">
-        <v>-0.01472365966413628</v>
+        <v>-0.01472398725386621</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1156,7 +1156,7 @@
         <v>44135</v>
       </c>
       <c r="B97">
-        <v>-0.03448408963461187</v>
+        <v>-0.0344843873820997</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1164,7 +1164,7 @@
         <v>44165</v>
       </c>
       <c r="B98">
-        <v>-0.008409502106125266</v>
+        <v>-0.008411769468374198</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1180,7 +1180,7 @@
         <v>44227</v>
       </c>
       <c r="B100">
-        <v>-0.01073297834994795</v>
+        <v>-0.01073446084833232</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1188,7 +1188,7 @@
         <v>44255</v>
       </c>
       <c r="B101">
-        <v>-0.02536359027319905</v>
+        <v>-0.02536509974621013</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1196,7 +1196,7 @@
         <v>44286</v>
       </c>
       <c r="B102">
-        <v>-0.03205850455440577</v>
+        <v>-0.03205909933581733</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1204,7 +1204,7 @@
         <v>44316</v>
       </c>
       <c r="B103">
-        <v>-0.01195137536512348</v>
+        <v>-0.01195034228599947</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1212,7 +1212,7 @@
         <v>44347</v>
       </c>
       <c r="B104">
-        <v>-0.009363921303493736</v>
+        <v>-0.009362018295083204</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1244,7 +1244,7 @@
         <v>44469</v>
       </c>
       <c r="B108">
-        <v>-0.02373896914227217</v>
+        <v>-0.02374326977261716</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1252,7 +1252,7 @@
         <v>44500</v>
       </c>
       <c r="B109">
-        <v>-0.01069815373723973</v>
+        <v>-0.01069674140631396</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1260,7 +1260,7 @@
         <v>44530</v>
       </c>
       <c r="B110">
-        <v>-0.00405314991956598</v>
+        <v>-0.004050798455571209</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1268,7 +1268,7 @@
         <v>44561</v>
       </c>
       <c r="B111">
-        <v>-0.001366537381795515</v>
+        <v>-0.001364876580790673</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1276,7 +1276,7 @@
         <v>44592</v>
       </c>
       <c r="B112">
-        <v>-0.04516504088171314</v>
+        <v>-0.04516442397010356</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1284,7 +1284,7 @@
         <v>44620</v>
       </c>
       <c r="B113">
-        <v>-0.05952003407110264</v>
+        <v>-0.05951846412912296</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1292,7 +1292,7 @@
         <v>44651</v>
       </c>
       <c r="B114">
-        <v>-0.06439838924409064</v>
+        <v>-0.06439198873420754</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1300,7 +1300,7 @@
         <v>44681</v>
       </c>
       <c r="B115">
-        <v>-0.1259843600800846</v>
+        <v>-0.1259782126913354</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1308,7 +1308,7 @@
         <v>44712</v>
       </c>
       <c r="B116">
-        <v>-0.1428012043909276</v>
+        <v>-0.142800140822564</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1316,7 +1316,7 @@
         <v>44742</v>
       </c>
       <c r="B117">
-        <v>-0.1843741727068265</v>
+        <v>-0.1843789913329151</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1324,7 +1324,7 @@
         <v>44773</v>
       </c>
       <c r="B118">
-        <v>-0.1544595506679093</v>
+        <v>-0.1544575066177453</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1332,7 +1332,7 @@
         <v>44804</v>
       </c>
       <c r="B119">
-        <v>-0.1913437744803716</v>
+        <v>-0.1913420840695366</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1340,7 +1340,7 @@
         <v>44834</v>
       </c>
       <c r="B120">
-        <v>-0.2592358748055991</v>
+        <v>-0.2592382539836215</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1348,7 +1348,7 @@
         <v>44865</v>
       </c>
       <c r="B121">
-        <v>-0.2260940775735767</v>
+        <v>-0.2260962686410965</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1356,7 +1356,7 @@
         <v>44895</v>
       </c>
       <c r="B122">
-        <v>-0.1904970605904574</v>
+        <v>-0.1905010787370695</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1364,7 +1364,7 @@
         <v>44926</v>
       </c>
       <c r="B123">
-        <v>-0.2220401993710495</v>
+        <v>-0.2220440932775874</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1372,7 +1372,7 @@
         <v>44957</v>
       </c>
       <c r="B124">
-        <v>-0.1631609899443196</v>
+        <v>-0.1631654415997706</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1380,7 +1380,7 @@
         <v>44985</v>
       </c>
       <c r="B125">
-        <v>-0.1838534541347168</v>
+        <v>-0.183857837299776</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1388,7 +1388,7 @@
         <v>45016</v>
       </c>
       <c r="B126">
-        <v>-0.1588065283424291</v>
+        <v>-0.1588111600229333</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1396,7 +1396,7 @@
         <v>45046</v>
       </c>
       <c r="B127">
-        <v>-0.1600720088142313</v>
+        <v>-0.160076641715564</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1404,7 +1404,7 @@
         <v>45077</v>
       </c>
       <c r="B128">
-        <v>-0.1820938302253291</v>
+        <v>-0.182096911760611</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1412,7 +1412,7 @@
         <v>45107</v>
       </c>
       <c r="B129">
-        <v>-0.155173367645236</v>
+        <v>-0.1551764216617836</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1420,7 +1420,7 @@
         <v>45138</v>
       </c>
       <c r="B130">
-        <v>-0.09767364519687265</v>
+        <v>-0.09767687285575248</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1428,7 +1428,7 @@
         <v>45169</v>
       </c>
       <c r="B131">
-        <v>-0.1024098284439881</v>
+        <v>-0.1024133397756566</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1436,7 +1436,7 @@
         <v>45199</v>
       </c>
       <c r="B132">
-        <v>-0.1131063278082207</v>
+        <v>-0.1131098144787992</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1444,7 +1444,7 @@
         <v>45230</v>
       </c>
       <c r="B133">
-        <v>-0.1229958810744236</v>
+        <v>-0.1230013879337787</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1452,7 +1452,7 @@
         <v>45260</v>
       </c>
       <c r="B134">
-        <v>-0.1023023756581125</v>
+        <v>-0.1023080524797558</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1460,7 +1460,7 @@
         <v>45291</v>
       </c>
       <c r="B135">
-        <v>-0.09302176591845664</v>
+        <v>-0.09302745718643195</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1468,7 +1468,7 @@
         <v>45322</v>
       </c>
       <c r="B136">
-        <v>-0.07360594662482176</v>
+        <v>-0.073611799953384</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1476,7 +1476,7 @@
         <v>45351</v>
       </c>
       <c r="B137">
-        <v>-0.04360733044918207</v>
+        <v>-0.04361339364803311</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1492,7 +1492,7 @@
         <v>45412</v>
       </c>
       <c r="B139">
-        <v>-0.009426880864789289</v>
+        <v>-0.009429689513862223</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1524,7 +1524,7 @@
         <v>45535</v>
       </c>
       <c r="B143">
-        <v>-0.001195761888172101</v>
+        <v>-0.001195761888172116</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1548,7 +1548,7 @@
         <v>45626</v>
       </c>
       <c r="B146">
-        <v>-0.02319198239367681</v>
+        <v>-0.007758866868411753</v>
       </c>
     </row>
   </sheetData>
